--- a/biology/Zoologie/Corythalia/Corythalia.xlsx
+++ b/biology/Zoologie/Corythalia/Corythalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corythalia est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corythalia est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 26/01/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 26/01/2023) :
 Corythalia alacris (Peckham &amp; Peckham, 1896)
 Corythalia albicincta (F. O. Pickard-Cambridge, 1901)
 Corythalia antepagmenti Bayer, Höfer &amp; Metzner, 2020
@@ -634,7 +650,7 @@
 Corythalia voluta (F. O. Pickard-Cambridge, 1901)
 Corythalia waleckii (Taczanowski, 1871)
 Corythalia xanthopa Crane, 1948
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Corythalia ocululiter Wunderlich, 1988
 † Corythalia pilosa Wunderlich, 1982
 † Corythalia scissa Wunderlich, 1988</t>
@@ -665,13 +681,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par C. L. Koch en 1850.
-Dynamius[3] et Escambia[4] ont été placés en synonymie par Simon en 1901[5].
-Makthalia[6] a été placé en synonymie par Mello-Leitão en 1939[7].
-Taeoma[7] a été placé en synonymie par Galiano en 1962[8].
-Dinattus[9] a été placé en synonymie par Zhang et Maddison en 2015[10].
+Dynamius et Escambia ont été placés en synonymie par Simon en 1901.
+Makthalia a été placé en synonymie par Mello-Leitão en 1939.
+Taeoma a été placé en synonymie par Galiano en 1962.
+Dinattus a été placé en synonymie par Zhang et Maddison en 2015.
 </t>
         </is>
       </c>
@@ -700,7 +718,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1850 : Übersicht des Arachnidensystems. Nürnberg, vol. 5, p. 1-77 (texte intégral).</t>
         </is>
